--- a/Powershell/Document_Templates/devices.xlsx
+++ b/Powershell/Document_Templates/devices.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bryank12gaus-my.sharepoint.com/personal/cvincent_bryan_k12_ga_us/Documents/Documents/GitHub/Book-of-Spells/Powershell/Document_Templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CB618A-8718-49CC-A71A-C880B32855A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{30CB618A-8718-49CC-A71A-C880B32855A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48DA1B88-9C26-494E-8B6B-11B54DBC6EC8}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="16200" windowHeight="9270" xr2:uid="{4C7F77E3-E145-47A3-866D-C1132586033D}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="11295" xr2:uid="{4C7F77E3-E145-47A3-866D-C1132586033D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,21 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>ClientID</t>
   </si>
   <si>
     <t>IPAddress</t>
-  </si>
-  <si>
-    <t>C5-0C-H6M-D1-IR-102404048687.AVIGILON</t>
-  </si>
-  <si>
-    <t>00-18-85-52-fc-df</t>
-  </si>
-  <si>
-    <t>10.16.32.3</t>
   </si>
   <si>
     <t>HostName</t>
@@ -425,9 +416,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{854604E0-C7B0-4747-9866-BE00F8702EDE}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -438,7 +431,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -447,17 +440,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
